--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://georgetown1-my.sharepoint.com/personal/js4759_georgetown_edu/Documents/Documents/GitHub/AASA-MatchMaker/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://georgetown1-my.sharepoint.com/personal/js4759_georgetown_edu/Documents/Documents/GitHub/MatchMaker/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2" documentId="8_{437E4778-DFB2-4A40-8D1E-2BCE89DACA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCC378A2-CDD2-4AC4-8FDE-37526BE18BBE}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1640" yWindow="3150" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1641,8 +1641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="I92" sqref="I92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A86" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1686,11 +1686,11 @@
       </c>
       <c r="D2" t="str">
         <f ca="1">IF(RAND()&lt;0.66,IF(RAND()&gt;0.5,"X","F"),"M")</f>
-        <v>X</v>
+        <v>M</v>
       </c>
       <c r="E2" t="str">
         <f ca="1">IF(RAND()&lt;0.66,IF(RAND()&gt;0.5,"S","G"),"B")</f>
-        <v>G</v>
+        <v>S</v>
       </c>
       <c r="F2">
         <v>6.2737049389999999</v>
@@ -1715,11 +1715,11 @@
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D66" ca="1" si="1">IF(RAND()&lt;0.66,IF(RAND()&gt;0.5,"X","F"),"M")</f>
-        <v>M</v>
+        <v>X</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E66" ca="1" si="2">IF(RAND()&lt;0.66,IF(RAND()&gt;0.5,"S","G"),"B")</f>
-        <v>G</v>
+        <v>B</v>
       </c>
       <c r="F3">
         <v>3.4607259240000001</v>
@@ -1740,7 +1740,7 @@
       </c>
       <c r="C4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>R</v>
+        <v>F</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>B</v>
       </c>
       <c r="F4">
         <v>4.4787495210000001</v>
@@ -1773,11 +1773,11 @@
       </c>
       <c r="D5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>G</v>
+        <v>S</v>
       </c>
       <c r="F5">
         <v>7.4683849210000002</v>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="E6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>G</v>
+        <v>S</v>
       </c>
       <c r="F6">
         <v>4.3639034759999999</v>
@@ -1827,15 +1827,15 @@
       </c>
       <c r="C7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>R</v>
+        <v>F</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>B</v>
+        <v>G</v>
       </c>
       <c r="F7">
         <v>9.7119823170000004</v>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="C8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>R</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="E8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>B</v>
       </c>
       <c r="F8">
         <v>3.036932932</v>
@@ -1885,15 +1885,15 @@
       </c>
       <c r="C9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>R</v>
+        <v>F</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>F</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>G</v>
+        <v>S</v>
       </c>
       <c r="F9">
         <v>1.9642588969999999</v>
@@ -1914,15 +1914,15 @@
       </c>
       <c r="C10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>R</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>M</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>B</v>
+        <v>S</v>
       </c>
       <c r="F10">
         <v>3.3295216160000001</v>
@@ -1947,11 +1947,11 @@
       </c>
       <c r="D11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>G</v>
+        <v>B</v>
       </c>
       <c r="F11">
         <v>0.90558227300000005</v>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="E12" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>G</v>
+        <v>B</v>
       </c>
       <c r="F12">
         <v>4.7107589650000001</v>
@@ -2005,11 +2005,11 @@
       </c>
       <c r="D13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>F</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>B</v>
+        <v>G</v>
       </c>
       <c r="F13">
         <v>4.593769429</v>
@@ -2030,15 +2030,15 @@
       </c>
       <c r="C14" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>R</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>F</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>B</v>
+        <v>G</v>
       </c>
       <c r="F14">
         <v>1.7354023009999999</v>
@@ -2059,15 +2059,15 @@
       </c>
       <c r="C15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>R</v>
+        <v>F</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>B</v>
+        <v>G</v>
       </c>
       <c r="F15">
         <v>3.9490736530000001</v>
@@ -2088,7 +2088,7 @@
       </c>
       <c r="C16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>R</v>
+        <v>F</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="E16" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>B</v>
       </c>
       <c r="F16">
         <v>3.4175631339999999</v>
@@ -2121,11 +2121,11 @@
       </c>
       <c r="D17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>B</v>
+        <v>G</v>
       </c>
       <c r="F17">
         <v>1.04939724</v>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="D18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>M</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2175,15 +2175,15 @@
       </c>
       <c r="C19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>R</v>
+        <v>F</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>M</v>
+        <v>X</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>B</v>
       </c>
       <c r="F19">
         <v>3.5859821150000002</v>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="C20" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>R</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2212,7 +2212,7 @@
       </c>
       <c r="E20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>G</v>
+        <v>B</v>
       </c>
       <c r="F20">
         <v>8.1033008689999999</v>
@@ -2233,15 +2233,15 @@
       </c>
       <c r="C21" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>R</v>
+        <v>F</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>F</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>B</v>
       </c>
       <c r="F21">
         <v>1.6381194459999999</v>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="C22" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>R</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="E22" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>G</v>
+        <v>B</v>
       </c>
       <c r="F22">
         <v>8.6043929969999997</v>
@@ -2291,15 +2291,15 @@
       </c>
       <c r="C23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>R</v>
+        <v>F</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>B</v>
+        <v>S</v>
       </c>
       <c r="F23">
         <v>9.8739786550000002</v>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="C24" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>R</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2328,19 +2328,19 @@
       </c>
       <c r="E24" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>G</v>
+        <v>B</v>
       </c>
       <c r="F24">
         <f ca="1">RAND()*10</f>
-        <v>9.2215888468397509</v>
+        <v>7.5440028660903575</v>
       </c>
       <c r="G24">
         <f t="shared" ref="G24:H39" ca="1" si="3">RAND()*10</f>
-        <v>7.3892349837267162</v>
+        <v>1.4254945638603078</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="3"/>
-        <v>3.0230184955014829</v>
+        <v>1.6869429271548075</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="25">
@@ -2356,23 +2356,23 @@
       </c>
       <c r="D25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>B</v>
       </c>
       <c r="F25">
         <f t="shared" ref="F25:H56" ca="1" si="4">RAND()*10</f>
-        <v>0.97148756618555043</v>
+        <v>6.2306081045146851</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="3"/>
-        <v>8.5646207705699933</v>
+        <v>5.0312281948860065</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1458869034312191</v>
+        <v>7.8151249952465847</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="25">
@@ -2384,27 +2384,27 @@
       </c>
       <c r="C26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>R</v>
+        <v>F</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>G</v>
+        <v>S</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2501919495349139</v>
+        <v>3.4055524080727673</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="3"/>
-        <v>0.44048719572678308</v>
+        <v>1.3668528179356654</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="3"/>
-        <v>2.5124014882494414</v>
+        <v>4.7432404713186704</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="50">
@@ -2416,7 +2416,7 @@
       </c>
       <c r="C27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>R</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2424,19 +2424,19 @@
       </c>
       <c r="E27" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>B</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="4"/>
-        <v>8.4818729985644161</v>
+        <v>6.0972436782857447</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="3"/>
-        <v>9.267160103066276</v>
+        <v>9.4095488163190648</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="3"/>
-        <v>8.5757170729277785</v>
+        <v>2.2336973203560104</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="25">
@@ -2452,23 +2452,23 @@
       </c>
       <c r="D28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>G</v>
+        <v>B</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="4"/>
-        <v>8.6605847043918285</v>
+        <v>9.6847984452359412</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="3"/>
-        <v>8.292230746477907</v>
+        <v>4.5066062935579598</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="3"/>
-        <v>3.9647426073264769</v>
+        <v>2.3751404230771445</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="25">
@@ -2480,27 +2480,27 @@
       </c>
       <c r="C29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>R</v>
+        <v>F</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>B</v>
+        <v>G</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="4"/>
-        <v>4.8448847725909125</v>
+        <v>3.7186801349819998</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="3"/>
-        <v>2.0913140724024837E-2</v>
+        <v>4.3656878468237963</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="3"/>
-        <v>4.1113250735231679</v>
+        <v>2.4491506289305933</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="37.5">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="D30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>M</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2524,15 +2524,15 @@
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="4"/>
-        <v>6.9486805445229169</v>
+        <v>6.015578335466417</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="3"/>
-        <v>8.5912708399761932</v>
+        <v>9.3123130105433649</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="3"/>
-        <v>7.3280476975725364</v>
+        <v>6.0187214292751463</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="25">
@@ -2548,23 +2548,23 @@
       </c>
       <c r="D31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>M</v>
+        <v>X</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>G</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9427104058256379</v>
+        <v>0.50243033016889038</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="3"/>
-        <v>8.3287395057259168</v>
+        <v>3.9395604725992293</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="3"/>
-        <v>8.4946852277243785</v>
+        <v>3.0871019919140821</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="37.5">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="D32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>F</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2588,15 +2588,15 @@
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="4"/>
-        <v>8.8477674342144361</v>
+        <v>0.12444629616301661</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="3"/>
-        <v>2.4651425164777416</v>
+        <v>5.7952233030520244</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="3"/>
-        <v>2.5785931970772644</v>
+        <v>6.2254715334259867</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="25">
@@ -2608,11 +2608,11 @@
       </c>
       <c r="C33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>R</v>
+        <v>F</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2620,15 +2620,15 @@
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="4"/>
-        <v>1.9992929887187949</v>
+        <v>6.6683524303745738</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2948005273621832</v>
+        <v>7.7087216098009028</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45833870904879337</v>
+        <v>5.5067518137302773</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="25">
@@ -2640,7 +2640,7 @@
       </c>
       <c r="C34" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>R</v>
+        <v>F</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2648,19 +2648,19 @@
       </c>
       <c r="E34" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>B</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="4"/>
-        <v>1.8504956907139125</v>
+        <v>0.49390498621889378</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5395055285697379</v>
+        <v>9.9545664114228352</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="3"/>
-        <v>8.9455327374181834</v>
+        <v>9.8043371340671079</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="25">
@@ -2672,11 +2672,11 @@
       </c>
       <c r="C35" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>R</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>M</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2684,15 +2684,15 @@
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="4"/>
-        <v>4.3216342357317581</v>
+        <v>5.9255298618418237</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="3"/>
-        <v>9.3197310668110198</v>
+        <v>4.2543650968800435</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="3"/>
-        <v>8.3046090493239291</v>
+        <v>3.2952696337279122</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="37.5">
@@ -2708,23 +2708,23 @@
       </c>
       <c r="D36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>F</v>
+        <v>X</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>B</v>
+        <v>G</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="4"/>
-        <v>6.1620122654169842</v>
+        <v>1.578173862519231</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="3"/>
-        <v>4.9344619968571575</v>
+        <v>6.9286837672925348</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="3"/>
-        <v>7.7338155635791725</v>
+        <v>9.0821946204845414</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="25">
@@ -2736,27 +2736,27 @@
       </c>
       <c r="C37" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>R</v>
+        <v>F</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>G</v>
+        <v>B</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="4"/>
-        <v>2.7763838926406423</v>
+        <v>9.3674345955091418</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="3"/>
-        <v>3.3427269651886018</v>
+        <v>2.7878259896378408</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="3"/>
-        <v>3.7120983917244188</v>
+        <v>4.2360770835393202</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="25">
@@ -2776,19 +2776,19 @@
       </c>
       <c r="E38" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>B</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="4"/>
-        <v>6.4017005944628664</v>
+        <v>4.4094324302763646</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="3"/>
-        <v>8.1774361181245965</v>
+        <v>8.744115122974808</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="3"/>
-        <v>9.4194465299117791E-2</v>
+        <v>8.1315060588029819</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="37.5">
@@ -2800,11 +2800,11 @@
       </c>
       <c r="C39" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>R</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>F</v>
+        <v>X</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2812,15 +2812,15 @@
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="4"/>
-        <v>5.9522792331306036</v>
+        <v>4.7861146232501426</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="3"/>
-        <v>6.0286261347172783</v>
+        <v>3.1720655531017696</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="3"/>
-        <v>6.1165305048372733</v>
+        <v>6.9755644434886657</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="25">
@@ -2844,15 +2844,15 @@
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="4"/>
-        <v>3.0960480752666033</v>
+        <v>8.7246673905198318</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9238061371352764</v>
+        <v>0.52276021584569121</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="4"/>
-        <v>4.8699031616783186</v>
+        <v>4.4818454381772987</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="25">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="D41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2876,15 +2876,15 @@
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="4"/>
-        <v>5.5639293308023916</v>
+        <v>5.689729450294263</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="4"/>
-        <v>7.9471651564155668</v>
+        <v>7.162989964124975</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="4"/>
-        <v>3.8630586152145021</v>
+        <v>0.52283182705246234</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="25">
@@ -2904,19 +2904,19 @@
       </c>
       <c r="E42" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>B</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="4"/>
-        <v>6.8547880881138523</v>
+        <v>0.11560981889076394</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="4"/>
-        <v>9.0668228447707904</v>
+        <v>9.6171502967796449</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="4"/>
-        <v>0.78598374415829508</v>
+        <v>0.28862899718079871</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="25">
@@ -2936,19 +2936,19 @@
       </c>
       <c r="E43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>B</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="4"/>
-        <v>4.7265228678137747</v>
+        <v>2.2854574690364347</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="4"/>
-        <v>2.4304874137706478</v>
+        <v>8.1218923711276343</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="4"/>
-        <v>4.2312298464055997</v>
+        <v>2.207807748391144</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="25">
@@ -2964,7 +2964,7 @@
       </c>
       <c r="D44" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2972,15 +2972,15 @@
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="4"/>
-        <v>5.4795977916581498</v>
+        <v>6.9065426181561342</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="4"/>
-        <v>9.4728050559515875</v>
+        <v>1.1134951802361559</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="4"/>
-        <v>0.68103405449359777</v>
+        <v>4.585821764924944</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="25">
@@ -3000,19 +3000,19 @@
       </c>
       <c r="E45" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>B</v>
+        <v>S</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="4"/>
-        <v>9.8212625782823721</v>
+        <v>8.1418297405167177</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3712577906936323</v>
+        <v>0.78190009572496555</v>
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="4"/>
-        <v>3.3640037183311744</v>
+        <v>9.9926705902959228</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="25">
@@ -3024,27 +3024,27 @@
       </c>
       <c r="C46" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>R</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>G</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="4"/>
-        <v>9.685197946165049</v>
+        <v>1.5134270201156463</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="4"/>
-        <v>2.7906187453301112</v>
+        <v>0.2004384967855688</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="4"/>
-        <v>9.1511729790654286</v>
+        <v>8.5337512493036662</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="25">
@@ -3056,27 +3056,27 @@
       </c>
       <c r="C47" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>R</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>M</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>G</v>
+        <v>S</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="4"/>
-        <v>7.9305395252418487</v>
+        <v>0.17796048623589411</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="4"/>
-        <v>8.3135662774193708</v>
+        <v>7.6975748421636867</v>
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="4"/>
-        <v>9.1076799310420231</v>
+        <v>0.91807099576639462</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="25">
@@ -3092,23 +3092,23 @@
       </c>
       <c r="D48" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>M</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>G</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="4"/>
-        <v>2.8792834735030626</v>
+        <v>9.9715412573579947</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1038431078289204</v>
+        <v>7.2542185393206138</v>
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="4"/>
-        <v>7.1955467149305994</v>
+        <v>0.60496420280054863</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="37.5">
@@ -3120,27 +3120,27 @@
       </c>
       <c r="C49" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>R</v>
+        <v>F</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>G</v>
+        <v>B</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9778478139117697</v>
+        <v>6.1864356237162443</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="4"/>
-        <v>7.9903776355106357</v>
+        <v>2.3550354463774159</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="4"/>
-        <v>0.76410600699422182</v>
+        <v>8.5602994430008366</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="25">
@@ -3152,11 +3152,11 @@
       </c>
       <c r="C50" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>R</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>F</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3164,15 +3164,15 @@
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="4"/>
-        <v>6.8207132246696043</v>
+        <v>6.5932696394406456</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2705882358358638</v>
+        <v>2.6559347182079374</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="4"/>
-        <v>3.1045333537109485</v>
+        <v>0.76002359351717841</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="37.5">
@@ -3196,15 +3196,15 @@
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="4"/>
-        <v>2.4015834425235005</v>
+        <v>0.89386215626011123</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="4"/>
-        <v>8.9823610719640392</v>
+        <v>6.7840330657267467</v>
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="4"/>
-        <v>5.6891547306193138</v>
+        <v>5.3232568515202763</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="37.5">
@@ -3224,19 +3224,19 @@
       </c>
       <c r="E52" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>B</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="4"/>
-        <v>4.2486599539421093</v>
+        <v>9.4268067428183517</v>
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="4"/>
-        <v>7.8817877972918629</v>
+        <v>4.3466155295368649</v>
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="4"/>
-        <v>1.9633342743501581</v>
+        <v>1.5777031363958194</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="37.5">
@@ -3248,7 +3248,7 @@
       </c>
       <c r="C53" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>R</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3256,19 +3256,19 @@
       </c>
       <c r="E53" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>B</v>
+        <v>G</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="4"/>
-        <v>6.6255997621416194</v>
+        <v>0.10951940909335933</v>
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3142665172602319</v>
+        <v>5.3643611285681212</v>
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="4"/>
-        <v>3.021490512388386</v>
+        <v>9.8243224394155817</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="25">
@@ -3284,23 +3284,23 @@
       </c>
       <c r="D54" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>G</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="4"/>
-        <v>8.986430254300581</v>
+        <v>3.6870216713692616</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="4"/>
-        <v>3.4217507616930076</v>
+        <v>7.2602050527920472</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="4"/>
-        <v>5.128434776239148</v>
+        <v>8.3976103048077864</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="25">
@@ -3316,23 +3316,23 @@
       </c>
       <c r="D55" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>B</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="4"/>
-        <v>1.0481056881568551</v>
+        <v>7.5138873036707832</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="4"/>
-        <v>1.4021432877463036</v>
+        <v>7.0110938916685752</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="4"/>
-        <v>4.2916114698891885</v>
+        <v>1.5655089337564543</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="25">
@@ -3344,27 +3344,27 @@
       </c>
       <c r="C56" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>R</v>
+        <v>F</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>M</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>G</v>
+        <v>S</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="4"/>
-        <v>1.6257117203928961</v>
+        <v>6.6611625103363528</v>
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="4"/>
-        <v>8.8130976916626302</v>
+        <v>5.958942476562564</v>
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="4"/>
-        <v>0.46582520188845455</v>
+        <v>1.416277042550903</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="37.5">
@@ -3376,27 +3376,27 @@
       </c>
       <c r="C57" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>R</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>F</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>G</v>
+        <v>S</v>
       </c>
       <c r="F57">
         <f t="shared" ref="F57:H88" ca="1" si="5">RAND()*10</f>
-        <v>4.3138189740873312</v>
+        <v>9.6412081169616997</v>
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="5"/>
-        <v>7.3682281461306385</v>
+        <v>6.5669103887365576</v>
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="5"/>
-        <v>4.3242988593457152</v>
+        <v>3.4103220870028697</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="37.5">
@@ -3408,11 +3408,11 @@
       </c>
       <c r="C58" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>R</v>
+        <v>F</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>M</v>
+        <v>X</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3420,15 +3420,15 @@
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="5"/>
-        <v>9.4506516097215787</v>
+        <v>4.0481864962093859</v>
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="5"/>
-        <v>3.5233312907093293</v>
+        <v>6.5536879531637195</v>
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="5"/>
-        <v>4.7332224138814158</v>
+        <v>9.8491592031364519</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="25">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="C59" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>R</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3452,15 +3452,15 @@
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="5"/>
-        <v>8.4872787184031946</v>
+        <v>9.2024627447315535</v>
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="5"/>
-        <v>1.1569785016667389</v>
+        <v>0.20688743894061057</v>
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="5"/>
-        <v>6.302398625636175</v>
+        <v>0.8352170550252247</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="25">
@@ -3480,19 +3480,19 @@
       </c>
       <c r="E60" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>B</v>
+        <v>S</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="5"/>
-        <v>3.174802646573248</v>
+        <v>5.2123147947907018</v>
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="5"/>
-        <v>7.0022851653027907</v>
+        <v>1.5281476950158923</v>
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="5"/>
-        <v>7.3459846322220645</v>
+        <v>6.8090994948619112</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="25">
@@ -3504,11 +3504,11 @@
       </c>
       <c r="C61" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>R</v>
+        <v>F</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>F</v>
+        <v>X</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3516,15 +3516,15 @@
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="5"/>
-        <v>8.3286555254675996</v>
+        <v>5.3153484475260555</v>
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="5"/>
-        <v>4.5054508077128128</v>
+        <v>9.6313505111032711</v>
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="5"/>
-        <v>0.9208885817321355</v>
+        <v>4.4655795830341507</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="25">
@@ -3540,23 +3540,23 @@
       </c>
       <c r="D62" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>M</v>
+        <v>X</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>B</v>
+        <v>S</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="5"/>
-        <v>9.2714548559706262</v>
+        <v>1.705418412450217</v>
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="5"/>
-        <v>4.4020993189346322</v>
+        <v>3.683879712993956</v>
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="5"/>
-        <v>5.6096234221069166</v>
+        <v>6.5702564335811413</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="25">
@@ -3568,7 +3568,7 @@
       </c>
       <c r="C63" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>R</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3580,15 +3580,15 @@
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="5"/>
-        <v>9.8743003566217098</v>
+        <v>7.6373798757699749</v>
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="5"/>
-        <v>1.1613137146152752</v>
+        <v>9.9176925726569216</v>
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1639111942461922</v>
+        <v>9.6792307752073441</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="25">
@@ -3600,7 +3600,7 @@
       </c>
       <c r="C64" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>R</v>
+        <v>F</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3608,19 +3608,19 @@
       </c>
       <c r="E64" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>B</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="5"/>
-        <v>9.7665251564349109</v>
+        <v>7.8615577285708884</v>
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="5"/>
-        <v>1.848101909843457</v>
+        <v>5.4724999465813706</v>
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="5"/>
-        <v>6.9291423643555081</v>
+        <v>4.9630916620532082</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="25">
@@ -3640,19 +3640,19 @@
       </c>
       <c r="E65" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>G</v>
+        <v>B</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="5"/>
-        <v>8.6171783767069758</v>
+        <v>4.7702853685983992</v>
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="5"/>
-        <v>6.5359950849786834</v>
+        <v>6.5010963063732152</v>
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="5"/>
-        <v>4.1341827465967196</v>
+        <v>8.4583932546003826</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="37.5">
@@ -3664,11 +3664,11 @@
       </c>
       <c r="C66" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>R</v>
+        <v>F</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>M</v>
       </c>
       <c r="E66" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3676,15 +3676,15 @@
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="5"/>
-        <v>1.5119275283374145</v>
+        <v>0.85237656810896012</v>
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="5"/>
-        <v>6.9908532878894647</v>
+        <v>7.5558412554899759</v>
       </c>
       <c r="H66">
         <f t="shared" ca="1" si="5"/>
-        <v>0.22581459257026704</v>
+        <v>1.7398677855094868</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="37.5">
@@ -3700,23 +3700,23 @@
       </c>
       <c r="D67" t="str">
         <f t="shared" ref="D67:D123" ca="1" si="7">IF(RAND()&lt;0.66,IF(RAND()&gt;0.5,"X","F"),"M")</f>
-        <v>F</v>
+        <v>X</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" ref="E67:E123" ca="1" si="8">IF(RAND()&lt;0.66,IF(RAND()&gt;0.5,"S","G"),"B")</f>
-        <v>S</v>
+        <v>B</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="5"/>
-        <v>1.829956442247298</v>
+        <v>5.4098623975071733</v>
       </c>
       <c r="G67">
         <f t="shared" ca="1" si="5"/>
-        <v>7.0347951105407525</v>
+        <v>0.39688978480292847</v>
       </c>
       <c r="H67">
         <f t="shared" ca="1" si="5"/>
-        <v>0.81847400517367719</v>
+        <v>0.4417980024388124</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="25">
@@ -3732,23 +3732,23 @@
       </c>
       <c r="D68" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>M</v>
+        <v>X</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>S</v>
+        <v>G</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0923523158099879</v>
+        <v>7.231294779285399</v>
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="5"/>
-        <v>7.6621382674269265</v>
+        <v>9.0103662449453186</v>
       </c>
       <c r="H68">
         <f t="shared" ca="1" si="5"/>
-        <v>6.5122316681085692</v>
+        <v>4.1161960988560562</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="25">
@@ -3760,11 +3760,11 @@
       </c>
       <c r="C69" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>R</v>
+        <v>F</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="E69" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -3772,15 +3772,15 @@
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="5"/>
-        <v>5.9211956809694701</v>
+        <v>1.3923220559595861</v>
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="5"/>
-        <v>6.0098561793438936</v>
+        <v>9.3051728248307892</v>
       </c>
       <c r="H69">
         <f t="shared" ca="1" si="5"/>
-        <v>1.7256756752617475</v>
+        <v>8.8176118796339971</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="25">
@@ -3804,15 +3804,15 @@
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="5"/>
-        <v>6.747803979680647</v>
+        <v>5.1415356986542697</v>
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="5"/>
-        <v>1.6408038566797867</v>
+        <v>8.4496129991553683</v>
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="5"/>
-        <v>2.0752742375277275</v>
+        <v>4.3462540508725178</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="25">
@@ -3824,27 +3824,27 @@
       </c>
       <c r="C71" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>R</v>
+        <v>F</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="E71" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>B</v>
+        <v>G</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="5"/>
-        <v>9.3698156985333529</v>
+        <v>2.1634978659861259</v>
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="5"/>
-        <v>9.9156584778285684</v>
+        <v>2.5856971901542867</v>
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9060128729266257</v>
+        <v>8.9250125844168693</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="37.5">
@@ -3860,23 +3860,23 @@
       </c>
       <c r="D72" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>M</v>
       </c>
       <c r="E72" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>G</v>
+        <v>S</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="5"/>
-        <v>2.2908501852184604</v>
+        <v>2.9290839023716009</v>
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="5"/>
-        <v>8.7627920137718753</v>
+        <v>7.7068276358955004</v>
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="5"/>
-        <v>4.0012063244975629</v>
+        <v>1.4161034528012018</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="25">
@@ -3888,27 +3888,27 @@
       </c>
       <c r="C73" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>R</v>
+        <v>F</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>F</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>G</v>
+        <v>B</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="5"/>
-        <v>7.7560460820224906</v>
+        <v>7.8243049640931925</v>
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="5"/>
-        <v>9.5641765549602553</v>
+        <v>8.7137117231175569</v>
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="5"/>
-        <v>6.6658010624479438</v>
+        <v>6.1442557909075104</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="25">
@@ -3924,23 +3924,23 @@
       </c>
       <c r="D74" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>M</v>
+        <v>X</v>
       </c>
       <c r="E74" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>S</v>
+        <v>B</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="5"/>
-        <v>4.3562103821592988</v>
+        <v>6.0344748719248367</v>
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="5"/>
-        <v>9.0797853462072098</v>
+        <v>7.3015239321682079</v>
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="5"/>
-        <v>7.8359732623998957</v>
+        <v>9.8662001610164936</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="25">
@@ -3956,23 +3956,23 @@
       </c>
       <c r="D75" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>M</v>
+        <v>X</v>
       </c>
       <c r="E75" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>S</v>
+        <v>G</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="5"/>
-        <v>2.2671838618201914</v>
+        <v>3.5494285200054176</v>
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="5"/>
-        <v>4.2201502900383421</v>
+        <v>8.1323408797030474</v>
       </c>
       <c r="H75">
         <f t="shared" ca="1" si="5"/>
-        <v>7.1421754766192667</v>
+        <v>9.4924457032369354</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="25">
@@ -3988,23 +3988,23 @@
       </c>
       <c r="D76" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>M</v>
       </c>
       <c r="E76" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>B</v>
+        <v>S</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="5"/>
-        <v>6.1590316736965702</v>
+        <v>3.0636121712081521</v>
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="5"/>
-        <v>9.6733927786440805</v>
+        <v>9.4729793273395355</v>
       </c>
       <c r="H76">
         <f t="shared" ca="1" si="5"/>
-        <v>5.2251081823981051</v>
+        <v>0.78997189880358754</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="37.5">
@@ -4028,15 +4028,15 @@
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="5"/>
-        <v>9.0824642723535192</v>
+        <v>7.463679951185922</v>
       </c>
       <c r="G77">
         <f t="shared" ca="1" si="5"/>
-        <v>6.8083157964301924</v>
+        <v>3.2189623300421366</v>
       </c>
       <c r="H77">
         <f t="shared" ca="1" si="5"/>
-        <v>3.4638724167295774</v>
+        <v>8.4300740198208022</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="25">
@@ -4052,23 +4052,23 @@
       </c>
       <c r="D78" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>M</v>
       </c>
       <c r="E78" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>S</v>
+        <v>G</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="5"/>
-        <v>8.8907161423389134</v>
+        <v>5.3513794429865253</v>
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3551709706161086</v>
+        <v>5.1421656857992399</v>
       </c>
       <c r="H78">
         <f t="shared" ca="1" si="5"/>
-        <v>6.3399300295256342</v>
+        <v>6.2997063495252448</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="25">
@@ -4084,23 +4084,23 @@
       </c>
       <c r="D79" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>F</v>
       </c>
       <c r="E79" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>G</v>
+        <v>S</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="5"/>
-        <v>7.9424013703549967</v>
+        <v>4.7633594632030825</v>
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="5"/>
-        <v>8.5445443789746651</v>
+        <v>6.3080923091733521</v>
       </c>
       <c r="H79">
         <f t="shared" ca="1" si="5"/>
-        <v>2.5757575120079448</v>
+        <v>2.1292146544145329</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="25">
@@ -4116,23 +4116,23 @@
       </c>
       <c r="D80" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>M</v>
+        <v>X</v>
       </c>
       <c r="E80" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>B</v>
+        <v>S</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="5"/>
-        <v>4.8264255142229162</v>
+        <v>8.8736341378172945</v>
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="5"/>
-        <v>6.3130166936753724</v>
+        <v>5.7607254482754424</v>
       </c>
       <c r="H80">
         <f t="shared" ca="1" si="5"/>
-        <v>0.39872253693124526</v>
+        <v>0.79188022799114854</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="25">
@@ -4148,23 +4148,23 @@
       </c>
       <c r="D81" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>M</v>
       </c>
       <c r="E81" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>G</v>
+        <v>B</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="5"/>
-        <v>2.3445427212768069</v>
+        <v>3.4699921901048905</v>
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="5"/>
-        <v>9.0522093396239658</v>
+        <v>8.3445230751234352</v>
       </c>
       <c r="H81">
         <f t="shared" ca="1" si="5"/>
-        <v>6.3828846489909008</v>
+        <v>4.0910757156274125</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="37.5">
@@ -4176,7 +4176,7 @@
       </c>
       <c r="C82" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>F</v>
+        <v>R</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4188,15 +4188,15 @@
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="5"/>
-        <v>4.7592038741046974</v>
+        <v>3.1628181144902223</v>
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="5"/>
-        <v>2.9095364266430055</v>
+        <v>9.5482003472628687</v>
       </c>
       <c r="H82">
         <f t="shared" ca="1" si="5"/>
-        <v>7.4588459230928725</v>
+        <v>4.4293231811984803</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="37.5">
@@ -4208,7 +4208,7 @@
       </c>
       <c r="C83" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>F</v>
+        <v>R</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4220,15 +4220,15 @@
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="5"/>
-        <v>8.166052778743083</v>
+        <v>5.0570297412182423</v>
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="5"/>
-        <v>6.4966089941791498</v>
+        <v>3.1916256251722173</v>
       </c>
       <c r="H83">
         <f t="shared" ca="1" si="5"/>
-        <v>4.0341659133650376</v>
+        <v>1.3944544501234668</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="25">
@@ -4248,19 +4248,19 @@
       </c>
       <c r="E84" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>B</v>
+        <v>S</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="5"/>
-        <v>3.2311422768600915</v>
+        <v>9.2537734418605471</v>
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="5"/>
-        <v>3.5479610022046462</v>
+        <v>8.5191388748480499</v>
       </c>
       <c r="H84">
         <f t="shared" ca="1" si="5"/>
-        <v>8.2326788671188424</v>
+        <v>3.5337412994013029</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="25">
@@ -4276,23 +4276,23 @@
       </c>
       <c r="D85" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>M</v>
+        <v>X</v>
       </c>
       <c r="E85" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>B</v>
+        <v>G</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0949244402978542</v>
+        <v>0.55384831243138977</v>
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16938932958895481</v>
+        <v>5.7372304859378565</v>
       </c>
       <c r="H85">
         <f t="shared" ca="1" si="5"/>
-        <v>3.2555769617890808</v>
+        <v>9.4736619860060429</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="25">
@@ -4308,23 +4308,23 @@
       </c>
       <c r="D86" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="E86" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>S</v>
+        <v>B</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="5"/>
-        <v>3.4364127721668645</v>
+        <v>8.3866971354143907</v>
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="5"/>
-        <v>2.3566281892609489</v>
+        <v>8.4796036301746369E-2</v>
       </c>
       <c r="H86">
         <f t="shared" ca="1" si="5"/>
-        <v>1.6952172868070214</v>
+        <v>0.59508043816506984</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="37.5">
@@ -4348,15 +4348,15 @@
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="5"/>
-        <v>4.4903661631337988</v>
+        <v>0.55703194329641659</v>
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="5"/>
-        <v>6.9917670295591874</v>
+        <v>9.5399883184368228</v>
       </c>
       <c r="H87">
         <f t="shared" ca="1" si="5"/>
-        <v>6.6694427328670027</v>
+        <v>7.8694085309490003</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="25">
@@ -4372,23 +4372,23 @@
       </c>
       <c r="D88" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="E88" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>B</v>
+        <v>G</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="5"/>
-        <v>4.6846038272474653</v>
+        <v>3.2702404095232351</v>
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="5"/>
-        <v>9.9961175661329555</v>
+        <v>6.2867916033158311</v>
       </c>
       <c r="H88">
         <f t="shared" ca="1" si="5"/>
-        <v>2.3109825994041988</v>
+        <v>7.9323303405489405</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="25">
@@ -4400,27 +4400,27 @@
       </c>
       <c r="C89" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>R</v>
+        <v>F</v>
       </c>
       <c r="D89" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="E89" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>S</v>
+        <v>B</v>
       </c>
       <c r="F89">
         <f t="shared" ref="F89:H123" ca="1" si="9">RAND()*10</f>
-        <v>8.617885363626586</v>
+        <v>8.8727339529527942</v>
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="9"/>
-        <v>5.7304134667244897</v>
+        <v>0.19999909598138355</v>
       </c>
       <c r="H89">
         <f t="shared" ca="1" si="9"/>
-        <v>9.0291567749410753</v>
+        <v>4.9855015188696274</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="25">
@@ -4432,27 +4432,27 @@
       </c>
       <c r="C90" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>F</v>
+        <v>R</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>F</v>
       </c>
       <c r="E90" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>S</v>
+        <v>G</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="9"/>
-        <v>7.1969747611776205</v>
+        <v>1.2950300414022098</v>
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="9"/>
-        <v>1.5488351481940066</v>
+        <v>6.5931271152322175</v>
       </c>
       <c r="H90">
         <f t="shared" ca="1" si="9"/>
-        <v>5.3349889951881426</v>
+        <v>2.1449182197222671</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="25">
@@ -4464,27 +4464,27 @@
       </c>
       <c r="C91" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>R</v>
+        <v>F</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>M</v>
       </c>
       <c r="E91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>S</v>
+        <v>B</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="9"/>
-        <v>5.2580309396789202</v>
+        <v>7.7774617603260152</v>
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="9"/>
-        <v>2.1947814933611207</v>
+        <v>0.3102995920782059</v>
       </c>
       <c r="H91">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9910859981990754</v>
+        <v>8.0665469797597886</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="37.5">
@@ -4496,7 +4496,7 @@
       </c>
       <c r="C92" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>R</v>
+        <v>F</v>
       </c>
       <c r="D92" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4504,19 +4504,19 @@
       </c>
       <c r="E92" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>S</v>
+        <v>B</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="9"/>
-        <v>5.532830343011609</v>
+        <v>1.3960693470836893</v>
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="9"/>
-        <v>3.0485322119107225</v>
+        <v>6.065788241032978</v>
       </c>
       <c r="H92">
         <f t="shared" ca="1" si="9"/>
-        <v>7.1032091575128611</v>
+        <v>7.3735994632988335</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="25">
@@ -4528,11 +4528,11 @@
       </c>
       <c r="C93" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>R</v>
+        <v>F</v>
       </c>
       <c r="D93" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>M</v>
+        <v>X</v>
       </c>
       <c r="E93" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -4540,15 +4540,15 @@
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="9"/>
-        <v>0.72962396784583383</v>
+        <v>2.291847352513753</v>
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="9"/>
-        <v>5.2116796629103401</v>
+        <v>4.9265374099781845</v>
       </c>
       <c r="H93">
         <f t="shared" ca="1" si="9"/>
-        <v>3.162964834693367</v>
+        <v>2.4243917596873144</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="25">
@@ -4560,7 +4560,7 @@
       </c>
       <c r="C94" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>R</v>
+        <v>F</v>
       </c>
       <c r="D94" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4568,19 +4568,19 @@
       </c>
       <c r="E94" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>S</v>
+        <v>G</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="9"/>
-        <v>5.2646197194292785</v>
+        <v>4.4262664064898978</v>
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="9"/>
-        <v>7.1901209537225323</v>
+        <v>3.5323994472593565</v>
       </c>
       <c r="H94">
         <f t="shared" ca="1" si="9"/>
-        <v>2.5905790729414555</v>
+        <v>1.1091485959307457</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="25">
@@ -4600,19 +4600,19 @@
       </c>
       <c r="E95" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>S</v>
+        <v>G</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="9"/>
-        <v>1.584215909911072</v>
+        <v>0.55034479307792927</v>
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="9"/>
-        <v>8.2359585541790707</v>
+        <v>9.6128591021162038</v>
       </c>
       <c r="H95">
         <f t="shared" ca="1" si="9"/>
-        <v>6.9896150811252697</v>
+        <v>7.6866999993120197</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="25">
@@ -4624,11 +4624,11 @@
       </c>
       <c r="C96" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>F</v>
+        <v>R</v>
       </c>
       <c r="D96" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>F</v>
       </c>
       <c r="E96" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -4636,15 +4636,15 @@
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="9"/>
-        <v>8.8737036692719542</v>
+        <v>4.2913043754268179</v>
       </c>
       <c r="G96">
         <f t="shared" ca="1" si="9"/>
-        <v>1.2450536118057387</v>
+        <v>7.9037169845512834</v>
       </c>
       <c r="H96">
         <f t="shared" ca="1" si="9"/>
-        <v>0.26617174658460141</v>
+        <v>8.3884625681700875</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="25">
@@ -4660,23 +4660,23 @@
       </c>
       <c r="D97" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="E97" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>B</v>
+        <v>S</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="9"/>
-        <v>6.9192966526719744</v>
+        <v>6.7257414308583563</v>
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="9"/>
-        <v>0.29150461941622074</v>
+        <v>4.6146004761805486</v>
       </c>
       <c r="H97">
         <f t="shared" ca="1" si="9"/>
-        <v>6.4933638671330467</v>
+        <v>1.8828490175762236</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="25">
@@ -4688,7 +4688,7 @@
       </c>
       <c r="C98" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>R</v>
+        <v>F</v>
       </c>
       <c r="D98" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4696,19 +4696,19 @@
       </c>
       <c r="E98" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>B</v>
+        <v>S</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="9"/>
-        <v>6.1466705665726007</v>
+        <v>2.2035901649712661</v>
       </c>
       <c r="G98">
         <f t="shared" ca="1" si="9"/>
-        <v>2.3170750736241597</v>
+        <v>4.3083352968333077</v>
       </c>
       <c r="H98">
         <f t="shared" ca="1" si="9"/>
-        <v>2.4963494135498632</v>
+        <v>1.2126425093312299</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="25">
@@ -4732,15 +4732,15 @@
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="9"/>
-        <v>0.59321331191753091</v>
+        <v>1.2741043498525795</v>
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="9"/>
-        <v>4.025375006571684</v>
+        <v>3.4479976588159058</v>
       </c>
       <c r="H99">
         <f t="shared" ca="1" si="9"/>
-        <v>3.6151605851425419</v>
+        <v>3.6368961986782109</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="25">
@@ -4756,23 +4756,23 @@
       </c>
       <c r="D100" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>F</v>
       </c>
       <c r="E100" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>S</v>
+        <v>B</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="9"/>
-        <v>9.8970363818065081</v>
+        <v>0.37577705658714877</v>
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="9"/>
-        <v>8.0555919986395566</v>
+        <v>6.928175339763075</v>
       </c>
       <c r="H100">
         <f t="shared" ca="1" si="9"/>
-        <v>4.3489560034316499</v>
+        <v>0.14714640594178818</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="37.5">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="D101" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="E101" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -4796,15 +4796,15 @@
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="9"/>
-        <v>6.1650235263195396</v>
+        <v>3.4243126780596445</v>
       </c>
       <c r="G101">
         <f t="shared" ca="1" si="9"/>
-        <v>6.382025578819456</v>
+        <v>1.18779630279649</v>
       </c>
       <c r="H101">
         <f t="shared" ca="1" si="9"/>
-        <v>0.45948793871024352</v>
+        <v>5.3314691072095481</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="25">
@@ -4820,7 +4820,7 @@
       </c>
       <c r="D102" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>M</v>
+        <v>X</v>
       </c>
       <c r="E102" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -4828,15 +4828,15 @@
       </c>
       <c r="F102">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9489204307268508</v>
+        <v>3.7147923155733142</v>
       </c>
       <c r="G102">
         <f t="shared" ca="1" si="9"/>
-        <v>6.2428981869699527</v>
+        <v>9.5289952814431587</v>
       </c>
       <c r="H102">
         <f t="shared" ca="1" si="9"/>
-        <v>3.1704891150135808</v>
+        <v>1.8568396473008186</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="25">
@@ -4860,15 +4860,15 @@
       </c>
       <c r="F103">
         <f t="shared" ca="1" si="9"/>
-        <v>1.1973061491578307</v>
+        <v>0.95790016229490238</v>
       </c>
       <c r="G103">
         <f t="shared" ca="1" si="9"/>
-        <v>3.0085843500795653</v>
+        <v>1.3078781934126482</v>
       </c>
       <c r="H103">
         <f t="shared" ca="1" si="9"/>
-        <v>3.4962317600760584</v>
+        <v>1.6366850340319539</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="25">
@@ -4880,27 +4880,27 @@
       </c>
       <c r="C104" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>F</v>
+        <v>R</v>
       </c>
       <c r="D104" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="E104" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>B</v>
+        <v>S</v>
       </c>
       <c r="F104">
         <f t="shared" ca="1" si="9"/>
-        <v>0.91727063746295578</v>
+        <v>8.5053851860957668</v>
       </c>
       <c r="G104">
         <f t="shared" ca="1" si="9"/>
-        <v>1.2074010953372005</v>
+        <v>5.8573039660385184</v>
       </c>
       <c r="H104">
         <f t="shared" ca="1" si="9"/>
-        <v>0.42235421599689071</v>
+        <v>9.0501578858992211</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="25">
@@ -4920,19 +4920,19 @@
       </c>
       <c r="E105" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>G</v>
+        <v>B</v>
       </c>
       <c r="F105">
         <f t="shared" ca="1" si="9"/>
-        <v>4.973929584807717</v>
+        <v>4.9977831220428559</v>
       </c>
       <c r="G105">
         <f t="shared" ca="1" si="9"/>
-        <v>9.198156637311012</v>
+        <v>7.4413436000975297</v>
       </c>
       <c r="H105">
         <f t="shared" ca="1" si="9"/>
-        <v>4.1383300934290057</v>
+        <v>3.0313194323129777</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="25">
@@ -4948,23 +4948,23 @@
       </c>
       <c r="D106" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>F</v>
+        <v>X</v>
       </c>
       <c r="E106" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>S</v>
+        <v>G</v>
       </c>
       <c r="F106">
         <f t="shared" ca="1" si="9"/>
-        <v>3.2418835883649444</v>
+        <v>7.5429129912912263</v>
       </c>
       <c r="G106">
         <f t="shared" ca="1" si="9"/>
-        <v>5.5627398156898877E-2</v>
+        <v>5.499069539833588</v>
       </c>
       <c r="H106">
         <f t="shared" ca="1" si="9"/>
-        <v>1.8697540991004902</v>
+        <v>1.9141218965396189</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="25">
@@ -4980,7 +4980,7 @@
       </c>
       <c r="D107" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="E107" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -4988,15 +4988,15 @@
       </c>
       <c r="F107">
         <f t="shared" ca="1" si="9"/>
-        <v>6.8393447607515903</v>
+        <v>5.2631584614992502</v>
       </c>
       <c r="G107">
         <f t="shared" ca="1" si="9"/>
-        <v>4.4581533277321608</v>
+        <v>5.1120376388457753</v>
       </c>
       <c r="H107">
         <f t="shared" ca="1" si="9"/>
-        <v>6.0070210778615127</v>
+        <v>2.9287293308514495</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="25">
@@ -5012,23 +5012,23 @@
       </c>
       <c r="D108" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>F</v>
+        <v>X</v>
       </c>
       <c r="E108" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>S</v>
+        <v>G</v>
       </c>
       <c r="F108">
         <f t="shared" ca="1" si="9"/>
-        <v>9.94411853396978</v>
+        <v>0.75827875136902811</v>
       </c>
       <c r="G108">
         <f t="shared" ca="1" si="9"/>
-        <v>9.1614087837734797</v>
+        <v>5.6867353846815387</v>
       </c>
       <c r="H108">
         <f t="shared" ca="1" si="9"/>
-        <v>8.0641099152506097</v>
+        <v>4.9994783891627481</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="25">
@@ -5048,19 +5048,19 @@
       </c>
       <c r="E109" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>S</v>
+        <v>B</v>
       </c>
       <c r="F109">
         <f t="shared" ca="1" si="9"/>
-        <v>4.1979778757689621</v>
+        <v>4.9615988719463067</v>
       </c>
       <c r="G109">
         <f t="shared" ca="1" si="9"/>
-        <v>8.3586425861941898</v>
+        <v>9.3489550625281588</v>
       </c>
       <c r="H109">
         <f t="shared" ca="1" si="9"/>
-        <v>8.0365560591052159</v>
+        <v>4.8342554011845902</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="25">
@@ -5076,23 +5076,23 @@
       </c>
       <c r="D110" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="E110" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>G</v>
+        <v>B</v>
       </c>
       <c r="F110">
         <f t="shared" ca="1" si="9"/>
-        <v>1.6872704519860005</v>
+        <v>4.9152231098526702</v>
       </c>
       <c r="G110">
         <f t="shared" ca="1" si="9"/>
-        <v>7.087270510918696</v>
+        <v>6.9102459389284911</v>
       </c>
       <c r="H110">
         <f t="shared" ca="1" si="9"/>
-        <v>7.3996957499584282</v>
+        <v>3.8198007329184422</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="25">
@@ -5104,27 +5104,27 @@
       </c>
       <c r="C111" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>F</v>
+        <v>R</v>
       </c>
       <c r="D111" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>F</v>
+        <v>X</v>
       </c>
       <c r="E111" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>B</v>
+        <v>G</v>
       </c>
       <c r="F111">
         <f t="shared" ca="1" si="9"/>
-        <v>5.8263083322847269</v>
+        <v>6.3580425825825104</v>
       </c>
       <c r="G111">
         <f t="shared" ca="1" si="9"/>
-        <v>5.607223470436324</v>
+        <v>9.9882105952565201</v>
       </c>
       <c r="H111">
         <f t="shared" ca="1" si="9"/>
-        <v>9.6795474403129997</v>
+        <v>4.8938618081930834</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="25">
@@ -5140,23 +5140,23 @@
       </c>
       <c r="D112" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="E112" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>S</v>
+        <v>G</v>
       </c>
       <c r="F112">
         <f t="shared" ca="1" si="9"/>
-        <v>9.2639181653523313</v>
+        <v>9.1089651131332019</v>
       </c>
       <c r="G112">
         <f t="shared" ca="1" si="9"/>
-        <v>5.6290231574917744</v>
+        <v>4.0122684593490252</v>
       </c>
       <c r="H112">
         <f t="shared" ca="1" si="9"/>
-        <v>1.5303130820632149</v>
+        <v>6.5111430176472576</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="25">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="D113" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>M</v>
+        <v>X</v>
       </c>
       <c r="E113" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -5180,15 +5180,15 @@
       </c>
       <c r="F113">
         <f t="shared" ca="1" si="9"/>
-        <v>2.9871494070151652</v>
+        <v>9.37962291006275</v>
       </c>
       <c r="G113">
         <f t="shared" ca="1" si="9"/>
-        <v>3.754704419227386</v>
+        <v>2.2495297049178484</v>
       </c>
       <c r="H113">
         <f t="shared" ca="1" si="9"/>
-        <v>1.5791698550237621</v>
+        <v>3.164103381797132</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="37.5">
@@ -5212,15 +5212,15 @@
       </c>
       <c r="F114">
         <f t="shared" ca="1" si="9"/>
-        <v>5.2048834855215524</v>
+        <v>4.8842830374452282</v>
       </c>
       <c r="G114">
         <f t="shared" ca="1" si="9"/>
-        <v>9.6754494084844156E-2</v>
+        <v>5.5295705419736141</v>
       </c>
       <c r="H114">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9927860516483671</v>
+        <v>7.832965168348716</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="25">
@@ -5232,27 +5232,27 @@
       </c>
       <c r="C115" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>F</v>
+        <v>R</v>
       </c>
       <c r="D115" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="E115" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>S</v>
+        <v>B</v>
       </c>
       <c r="F115">
         <f t="shared" ca="1" si="9"/>
-        <v>5.9930217638709742</v>
+        <v>0.94418196776337671</v>
       </c>
       <c r="G115">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1626377639396335</v>
+        <v>4.0608837961206774</v>
       </c>
       <c r="H115">
         <f t="shared" ca="1" si="9"/>
-        <v>6.1453861338284943</v>
+        <v>7.7809572715298394</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="25">
@@ -5264,7 +5264,7 @@
       </c>
       <c r="C116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>R</v>
+        <v>F</v>
       </c>
       <c r="D116" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -5272,19 +5272,19 @@
       </c>
       <c r="E116" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>G</v>
+        <v>S</v>
       </c>
       <c r="F116">
         <f t="shared" ca="1" si="9"/>
-        <v>1.8844656868622045</v>
+        <v>4.2846141238869215</v>
       </c>
       <c r="G116">
         <f t="shared" ca="1" si="9"/>
-        <v>8.9442714349942811</v>
+        <v>9.2181646374433406</v>
       </c>
       <c r="H116">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1399493422658535</v>
+        <v>9.9966542350433816</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="25">
@@ -5300,23 +5300,23 @@
       </c>
       <c r="D117" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="E117" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>S</v>
+        <v>G</v>
       </c>
       <c r="F117">
         <f t="shared" ca="1" si="9"/>
-        <v>9.2564518739963422</v>
+        <v>5.7866486183855779</v>
       </c>
       <c r="G117">
         <f t="shared" ca="1" si="9"/>
-        <v>4.0399954131458298</v>
+        <v>4.7143054612816071</v>
       </c>
       <c r="H117">
         <f t="shared" ca="1" si="9"/>
-        <v>9.9083138130624846</v>
+        <v>0.76613771216379467</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="25">
@@ -5336,19 +5336,19 @@
       </c>
       <c r="E118" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>G</v>
+        <v>S</v>
       </c>
       <c r="F118">
         <f t="shared" ca="1" si="9"/>
-        <v>4.3245848050401108</v>
+        <v>7.0782760889441452</v>
       </c>
       <c r="G118">
         <f t="shared" ca="1" si="9"/>
-        <v>8.6120862281522523</v>
+        <v>0.25618939131471952</v>
       </c>
       <c r="H118">
         <f t="shared" ca="1" si="9"/>
-        <v>1.8555785297511396</v>
+        <v>2.675780675632554</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="25">
@@ -5360,27 +5360,27 @@
       </c>
       <c r="C119" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>R</v>
+        <v>F</v>
       </c>
       <c r="D119" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>F</v>
       </c>
       <c r="E119" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>B</v>
+        <v>G</v>
       </c>
       <c r="F119">
         <f t="shared" ca="1" si="9"/>
-        <v>4.8040740362579921</v>
+        <v>8.1060751721903781</v>
       </c>
       <c r="G119">
         <f t="shared" ca="1" si="9"/>
-        <v>8.7824797093225069</v>
+        <v>5.5099460064446788</v>
       </c>
       <c r="H119">
         <f t="shared" ca="1" si="9"/>
-        <v>1.5148737382501787</v>
+        <v>3.6745881215419116</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="25">
@@ -5396,7 +5396,7 @@
       </c>
       <c r="D120" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>F</v>
+        <v>X</v>
       </c>
       <c r="E120" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -5404,15 +5404,15 @@
       </c>
       <c r="F120">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1451167131541</v>
+        <v>4.7325315797113454</v>
       </c>
       <c r="G120">
         <f t="shared" ca="1" si="9"/>
-        <v>8.1841849503493584</v>
+        <v>3.3193484451773889</v>
       </c>
       <c r="H120">
         <f t="shared" ca="1" si="9"/>
-        <v>7.2333624811742112</v>
+        <v>8.45263750890396</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="25">
@@ -5428,7 +5428,7 @@
       </c>
       <c r="D121" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="E121" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -5436,15 +5436,15 @@
       </c>
       <c r="F121">
         <f t="shared" ca="1" si="9"/>
-        <v>5.6100194678150199</v>
+        <v>7.2407820461484782</v>
       </c>
       <c r="G121">
         <f t="shared" ca="1" si="9"/>
-        <v>2.1856277305884642</v>
+        <v>0.65221015272359351</v>
       </c>
       <c r="H121">
         <f t="shared" ca="1" si="9"/>
-        <v>2.800168027957465</v>
+        <v>6.063332079055396</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="25">
@@ -5456,7 +5456,7 @@
       </c>
       <c r="C122" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>F</v>
+        <v>R</v>
       </c>
       <c r="D122" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -5464,19 +5464,19 @@
       </c>
       <c r="E122" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>G</v>
+        <v>S</v>
       </c>
       <c r="F122">
         <f t="shared" ca="1" si="9"/>
-        <v>2.4599366898509398</v>
+        <v>6.8394766119029278</v>
       </c>
       <c r="G122">
         <f t="shared" ca="1" si="9"/>
-        <v>2.9734121374737557</v>
+        <v>9.0302125916292812</v>
       </c>
       <c r="H122">
         <f t="shared" ca="1" si="9"/>
-        <v>2.1420575629806313</v>
+        <v>0.26674705697434908</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="25">
@@ -5496,19 +5496,19 @@
       </c>
       <c r="E123" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>S</v>
+        <v>B</v>
       </c>
       <c r="F123">
         <f t="shared" ca="1" si="9"/>
-        <v>7.3077153541036424</v>
+        <v>4.0554602701253355</v>
       </c>
       <c r="G123">
         <f t="shared" ca="1" si="9"/>
-        <v>3.1061593223221582</v>
+        <v>3.7721749794235517</v>
       </c>
       <c r="H123">
         <f t="shared" ca="1" si="9"/>
-        <v>1.1303492507921198</v>
+        <v>3.9885043996011085</v>
       </c>
     </row>
   </sheetData>
